--- a/UniApply_Chatbot/data/uni_qa.xlsx
+++ b/UniApply_Chatbot/data/uni_qa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{001194FD-1D4B-4155-B559-5A269E7769CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0549EE-915E-47E8-9B55-ACBD33C72762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4070F02A-3C45-45FE-90BA-674872CA7EB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="257">
   <si>
     <t>Question</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,12 +509,593 @@
     <t>USC, Vertibi, Master,PhD, Admitted</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Does the department provide “pre-application” reviews?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is the prospective applicant’s responsibility to do their research and  review this page, frequently asked questions, and the department’s annual report to determine their admission competitiveness, and academic and research fit with the university/program they are applying to.</t>
+  </si>
+  <si>
+    <t>An applicant for admission must hold a bachelor’s degree from an accredited college or university, must have the necessary academic preparation to complete graduate level courses in computer science, and must be able to score competitively on the GRE test. The university requires at least a scholastic average of B (3.0 on a 4.0 scale) or its equivalent if the letter grade system is not used. We expect at least a 3.50 GPA (on a 4.00 scale) in the junior and senior years, and at least 3.50 in any graduate study. The GRE will not be required for the 2024-2025 Admissions cycle. Previously there are no minimums required for GRE. International students must submit a TOEFL with a score of at least 87 (computer-based) or 560 (paper-based), or an IELTS with a score of at least 7.0. Conditional admission is not offered. A transitional or pre-master’s program is not available.</t>
+  </si>
+  <si>
+    <t>What are the application requirements?</t>
+  </si>
+  <si>
+    <t>No. The Computer Science Department accepts applications for fall quarter only. Applications should be submitted only between mid-September and the deadline of December 15.</t>
+  </si>
+  <si>
+    <t>Do you accept applications for admission for study beginning winter or spring quarter?</t>
+  </si>
+  <si>
+    <t>My academic background is not in computer science. Am I eligible to apply to your graduate program?</t>
+  </si>
+  <si>
+    <t>In fairness to applicants and to assure the efficacy of the selection process, we cannot guarantee that your file will be reviewed if application materials such as test scores and transcripts are  submitted after the December 15 deadline. As long as you ordered the scores by the test maker (i.e. ETS, IELTS) to be sent to the correct school and program (it is the student’s responsibility to make sure they did) by the deadline it’s fine. Modifications/edits to the admissions application or materials (i.e. statement of purpose, personal history, etc) are not allowed. The number of qualified applicants far exceeds the number of available seats.</t>
+  </si>
+  <si>
+    <t>Will my application be reviewed if any application material is submitted after December 15?</t>
+  </si>
+  <si>
+    <t>Fee Waiver criteria  may be found here: https://grad.ucla.edu/admissions/faqs/ It is the applicant’s responsibility to upload all the required documents (i.e. letter from Program Director confirming program participation for eligible programs, letter from financial aid officer from university/college you are currently enrolled in, statement from the registrar’s office confirming certain information, etc) as stated on the Fee Waiver Criteria webpage , in your online application before submitting your admissions application (the deadline to submit your admission application is December 15). It is the applicant’s responsibility to redact or block out all U.S. Social Security numbers before submitting the document that have social security numbers on it.  If a U.S. Social Security number is visible on the document, the UCLA Graduate Division cannot accept it and the CS department cannot redact or block out this information for an applicant. Due to the heavy volume of applicants, If you submit your fee waiver materials to the CS dept after the deadline we cannot guarantee it will be reviewed. This information on Fee Waiver criteria is on our webpage and the UCLA Graduate Division’s webpage all year long thus applicants are fully aware of deadlines for the application and fee waiver materials months prior to the admissions application deadline. If you do not meet the criteria for a Fee Waiver as specifically stated on the Fee Waiver requirement page then unfortunately you do not qualify for a fee waiver (no exceptions).</t>
+  </si>
+  <si>
+    <t>How can I apply for a Fee Waiver?</t>
+  </si>
+  <si>
+    <t>No. All application material must be submitted before admission consideration is given.</t>
+  </si>
+  <si>
+    <t>Are “conditional admission” offers made to applicants?</t>
+  </si>
+  <si>
+    <t>No. Due to the overwhelming number of qualified applicants, a transitional or pre-master’s program is not offered.</t>
+  </si>
+  <si>
+    <t>Is a transitional or pre-master’s program offered?</t>
+  </si>
+  <si>
+    <t>You will not be considered for admission into the M.S. program if you already have or enrolled in a master’s degree in computer science or similar discipline such as information sciences or data systems. As with many computer science departments, the number of qualified applicants far exceeds the number of available seats. Due to the high volume of applicants and in fairness to all applicants and limited number of spots each year, we do not allow transfers into our MS program. You are welcome to apply to the Ph.D. program.</t>
+  </si>
+  <si>
+    <t>May I apply to the M.S. program if I already have earned or will soon earn a master’s degree?</t>
+  </si>
+  <si>
+    <t>In order to ensure your GRE/IELTS/TOEFL scores synch up with your online application make sure your last name, first name, middle name (if any) and email address match exactly on your ETS registration and on your online graduate admissions applications. If you leave out your middle name or use a different email address the scores might not synch up to your graduate admissions application and we cannot guarantee your scores will be received by the deadline. As long as you ordered the scores to be sent to the correct school and department by the deadline you’re fine. You will be contacted if any document or application material is missing or needed. Please do not email or call to inquire about receipt of documents as it will delay our efforts to process application material. Our office is able to match test reports and transcripts for nearly all applicants however it takes time due to the volume of applicants. An applicant is denied admission consideration due to an incomplete file only if he or she does not respond to our request to submit missing material. Ph.D. decisions will be emailed to all applicants in early February. M.S. decisions will be emailed out in March.</t>
+  </si>
+  <si>
+    <t>Have you received my transcripts (or GRE, TOEFL)?</t>
+  </si>
+  <si>
+    <t>In fairness to applicants and to assure the efficacy of the selection process, we cannot guarantee that your file will be reviewed if application material is submitted after the December 15 deadline. It is the student’s responsibility to take all necessary tests and submit the test scores by the deadline (this information is on our website all year). Please note it may take weeks for scores to synch up after the application has been submitted (as long as everything was submitted by the deadline it should be fine). Please do not contact us to see if we receive your scores, it will reflect on your application checklist eventually.  Please make every effort to submit material by the deadline. Unofficial test scores may be emailed to the Computer Science Department. Modifications/edits to the admissions application or materials (i.e. statement of purpose, personal history, etc) are not allowed. As with many computer science departments, the number of qualified applicants far exceeds the number of available seats. Fee waiver criteria may be found here. Please note it is the applicant’s responsibility to ensure the materials required for a fee waiver (i.e. Program Chair letter, financial aid office letter, SSN redacted from tax documents, etc) are uploaded in their application before they submit their application. This cannot be modified/edited once an application has been officially submitted. If you do not meet the criteria as stated on the Fee waiver webpage then you are not eligible for a fee waiver (no exceptions).</t>
+  </si>
+  <si>
+    <t>Will My Application and Application Material(s) Be Reviewed if I submit it After December 15?</t>
+  </si>
+  <si>
+    <r>
+      <t>If you are a Ph.D. applicant, you will receive an email notification concerning your admission status by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2B2B2B"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>late February.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2B2B2B"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t> If offered admission, you must accept or decline our offer no later than April 15. M.S. applicants will be notified in Spring (March- mid April) and must also respond by April 15.</t>
+    </r>
+  </si>
+  <si>
+    <t>When will I be informed of my admission status?</t>
+  </si>
+  <si>
+    <t>No. The department does not offer admission deferrals. The number of qualified applicants far exceeds the number of available seats.</t>
+  </si>
+  <si>
+    <t>If I am admitted, may I defer my admission to a future term?</t>
+  </si>
+  <si>
+    <t>Yes. Re-applicants often have strengthened their candidacy. You would need to submit a new online application and new supplemental material. Your test scores will be available as long as they have not become outdated.</t>
+  </si>
+  <si>
+    <t>If I am not admitted, may I re-apply the following year?</t>
+  </si>
+  <si>
+    <t>The deadline to submit application material is December 15. In fairness to applicants and to assure the efficacy of the selection process, we cannot guarantee that your file will be reviewed if application material is submitted after the December 15 deadline. Please make every effort to send/upload materials and submit your application by the deadline. In order to ensure your GRE/IELTS/TOEFL scores synch up with your online application make sure your last name, first name, middle name (if any) and email address match exactly on your ETS registration and on your online graduate admissions applications. If you leave out your middle name or use a different email address the scores might not synch up to your graduate admissions application and we cannot guarantee your scores will be received by the deadline. The number of qualified applicants far exceeds the number of available seats.</t>
+  </si>
+  <si>
+    <t>When is the deadline to submit application material?</t>
+  </si>
+  <si>
+    <t>The faculty begin reviewing Ph.D. applications in December and M.S. applications in January.</t>
+  </si>
+  <si>
+    <t>When will my application be reviewed?</t>
+  </si>
+  <si>
+    <t>If you are a Ph.D. applicant, you will receive an email notification concerning your admission status by late February. If offered admission, you must accept or decline our offer no later than April 15. M.S. applicants will be notified by late March and must also respond by April 15.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please visit the university’s academic and administrative calendar.</t>
+  </si>
+  <si>
+    <t>When is the university closed for the holidays?</t>
+  </si>
+  <si>
+    <t>Ph.D. applicants need not submit a CFS, as funding is offered to all Ph.D. applicants offered admission. M.S. applicants are not eligible for departmental financial support. TAing is not part of the Computer Science Masters Program and M.S. student (both incoming and continuing) are not guaranteed TAships/GSRs/Reader positions (i.e. Dept funding) for any year To qualify for a visa to study in the U.S., international M.S. applicants must demonstrate personal or agency financial support of at least $55,000 for the first year. Prospective M.S. applicants should apply for admission ONLY if they can provide such documentation, which will be requested if admission is offered, in early March. Information on the cost of attendance is available on the UCLA Graduate Division Cost of Attendance webpage. Specific charges for tuition and fees and non-resident supplemental tuition are listed on the Registrar’s fee page. Information about university-wide fellowships and grants, and external fellowships may be found at the UCLA Graduate Division funding webpage.</t>
+  </si>
+  <si>
+    <t>When is the deadline to submit the CFS?</t>
+  </si>
+  <si>
+    <t>The total amount of money needed for living and educational expenses for the 2020-2021 academic year for most programs at UCLA, including computer science, is about US $55,000. This includes 1) US about $32,000 for tuition and fees for three quarters, and 2) US about $19,000 for basic living costs (food, rent, laundry, local transportation, books and supplies, etc.). It is estimated that the cost for the 2020-2021 academic year will be at least $55,000. Ph.D. international students offered admission will be provided funding that meets the anticipated cost of attendance. (In a few instances, Ph.D. applicants are admitted who have their own agency funding (e.g. Fulbright Fellowship, government/industry support) that meets the anticipated cost of attendance.)</t>
+  </si>
+  <si>
+    <t>How much funding must I provide to qualify for a visa to study in the United States?</t>
+  </si>
+  <si>
+    <t>A sample budget for most programs, including computer science, is available on the Graduate Division fees and living expenses webpage. Specific charges for tuition and fees and non-resident supplemental tuition are listed on the Registrar’s fee page.</t>
+  </si>
+  <si>
+    <t>What is the cost of attendance at UCLA?</t>
+  </si>
+  <si>
+    <t>Ph.D. applicants need not submit a CFS, as funding is offered to all Ph.D. applicants offered admission. Unfortunately, M.S. applicants are not eligible for departmental financial support. To qualify for a visa to study in the U.S., international M.S. applicants must demonstrate personal or agency financial support of at least $55,000 for the first year. Prospective M.S. applicants should apply for admission ONLY if they can provide such documentation, which will be requested if admission is offered, in early Spring (March-May). Information on the cost of attendance is available on the UCLA Graduate Division Cost of Attendance webpage. Specific charges for tuition and fees and non-resident supplemental tuition are listed on the Registrar’s fee page. Information about university-wide fellowships and grants, and external fellowships may be found at the UCLA Graduate Division funding webpage.</t>
+  </si>
+  <si>
+    <t>You may apply to either the Ph.D. program or the M.S. program but not both. Admission to the Ph.D. program is more selective than for the M.S. program. In general, the admissions committee does not consider Ph.D. applicants for admission into the M.S. program and vice versa. While a Ph.D. degree prepares students not only for careers in research and academia, those who apply for a Ph.D. degree typically demonstrate significant achievement in and/or potential for advancing knowledge through independent research and teaching.
+While a M.S. degree prepares students not only for careers in the industry, those who apply for an M.S. degree typically demonstrate interest in developing and applying technical skills and translational knowledge. M.S. applicants should be aware that the selection process is rigorous for M.S. students who later apply for admission into the Ph.D. program.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>May I apply to both M.S. and Ph.D. degree programs?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You will not be considered for admission into the M.S. program if you already have a master’s degree in computer science or similar discipline such as information sciences or data systems or currently enrolled in an MS degree in a related field. As with many computer science departments, the number of qualified applicants far exceeds the number of available seats.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>May I apply to the M.S. program if I already have earned or will soon earn a master’s degree?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No. In the Ph.D. classes beginning study Fall Quarter 2013 and Fall Quarter 2014, 48% and 32%, respectively, had earned only a bachelor’s degree.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Am I required to have a master’s degree to apply to the Ph.D. program?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, but only if you have not previously earned an M.S. degree in computer science or a related field. You may petition for an M.S. degree as you fulfill the M.S. degree requirements. The Ph.D. Written Qualifying Exam (WQE) may be substituted for the M.S. comprehensive exam or thesis. Degree requirements are listed at the Computer Science Department website.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If I am a Ph.D. applicant, may I earn an M.S. degree while completing my Ph.D. at UCLA?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Does Computer Science offer a distance learning program?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No. Students must be registered and enrolled each quarter for a minimum of 12 units. Unless granted a formal leave of absence, students are expected to register every term, including the term in which their degree or certificate is to be awarded. The filing fee may be used in lieu of registration if all formal requirements for the degree, except for filing the thesis or taking the comprehensive examination, are met prior to the first day of instruction of the term.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Does Computer Science offer a part-time program?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The number of terms to complete a degree program varies from student to student. On average, the M.S. degree is earned in 5 quarters (F, W, Sp, F, W, S) but so may need 6 quarters (2 full years) to finish. The MS program is an in-person 2 year full-time program. The average length of time for Ph.D. students to complete their degree is 6 years.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How long does it take to earn an M.S. or Ph.D. degree?</t>
+  </si>
+  <si>
+    <t>Applicants to the Ph.D. program will automatically be considered for departmental funding; no departmental scholarship application is needed. Ph.D. international students offered admission will be provided funding that meets the anticipated cost of attendance. Awards will be given based on the Ph.D. applicants’ academic merit and potential. Ph.D. applicants are informed of their financial support in their admission offers. TAing is not part of the Computer Science Masters Program and M.S. student (both incoming and continuing) are not guaranteed TAships/GSRs (i.e. Dept funding) for any year M.S. applicants are not eligible for departmental financial support. To qualify for a visa to study in the U.S., international M.S. applicants must demonstrate personal or agency financial support of at least $55,000 for the first year. Prospective M.S. applicants should apply for admission ONLY if they can provide such documentation, which will be requested if admission is offered, in early March. Information on the cost of attendance is available on the UCLA Graduate Division Cost of Attendance webpage. Information about university-wide fellowships and grants, and external fellowships may be found at the UCLA Graduate Division funding webpage.</t>
+  </si>
+  <si>
+    <t>Do I need to submit an application for departmental funding?</t>
+  </si>
+  <si>
+    <t>The department accepts applications from current students in April for TA positions to be assigned the following academic school year. Ph.D. students fill nearly all TA positions. Assignments are contingent on your eligibility which includes passing CS495: Teaching Assistant Training Seminar, and for non-native speakers of English, passing the university’s Test of Oral Proficiency (TOP). A select group of domestic M.S. admittees are invited during the summer before enrollment to apply for CS TA positions. All M.S. admittees may explore TA opportunities in other academic departments (i.e EE, Math, STAT). TAing is not part of the Computer Science Masters Program and M.S. student (both incoming and continuing) are not guaranteed TAships/GSRs (i.e. Dept funding) for any year M.S. applicants are not eligible for departmental financial support. To qualify for a visa to study in the U.S., international M.S. applicants must demonstrate personal or agency financial support of at least $55,000 for the first year. Prospective M.S. applicants should apply for admission ONLY if they can provide such documentation, which will be requested if admission is offered, in early March. Information on the cost of attendance is available on the UCLA Graduate Division Cost of Attendance webpage. Information about university-wide fellowships and grants, and external fellowships may be found at the UCLA Graduate Division funding webpage.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How do I apply for a teaching assistantship (TA) position?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhD admittees are offered financial support as either a graduate student researcher (GSR) or departmental fellow. For M.S. admittees, a limited number of CS GSR positions are available, based on research experience and potential. They are typically secured after enrollment. Please note GSR positions will never ask for you to pay/ask for money upfront. All M.S. admittees may explore GSR opportunities in other academic departments (i.e EE, Math, STAT) and campus departments. TAing/GSrs are not part of the Computer Science Masters Program and M.S. student (both incoming and continuing) are not guaranteed TAships/GSRs (i.e. Dept funding) for any year. M.S. applicants are not eligible for departmental financial support. To qualify for a visa to study in the U.S., international M.S. applicants must demonstrate personal or agency financial support of at least $55,000 for the first year. Prospective M.S. applicants should apply for admission ONLY if they can provide such documentation, which will be requested if admission is offered, in early March. Information on the cost of attendance is available on the UCLA Graduate Division Cost of Attendance webpage. Information about university-wide fellowships and grants, and external fellowships may be found at the UCLA Graduate Division funding webpage.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How do I apply for a graduate student researcher (GSR) position?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLA’s GRE institution code is 4837. The GRE department code is 0402. If you are unable to submit the department code, we will still be able to receive your score report.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is UCLA’s GRE institution code? What is the GRE department code?</t>
+  </si>
+  <si>
+    <t>**GRE Requirement for Fall 2023-2024 Admissions Cycle Only** Students who wish to apply for admission to our graduate program for the 2023-2024 academic year (applications for this cycle are due December 1, 2022) are not required to take the GRE or submit a GRE score report as part of their application package. However, students may voluntarily submit GRE test scores and they will be reviewed as part of the holistic application consideration. The applications with GRE scores will not be given greater weight than those that do not include scores.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have completed a master’s degree. Do I need to take the GRE?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No. The admissions committee does not review scores of this exam.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is the GRE computer science subject test required?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No. There is no minimum GRE score requirement. However, the most competitive applicants earn average or above average scores compared to the computer science applicant pool.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Does either the university or the department require a minimum GRE score?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As long as you complete the exam before the December 15 deadline, we will accept the scores. You may email your unofficial verbal and quantitative scores to the Computer Science Department. Friendly reminder GRE are not required for admissions. In order to ensure your scores synch up with your online application make sure your last name, first name, middle name (if any) and email address match exactly on your ETS registration and on your online graduate admissions applications. If you leave out your middle name or use a different email address the scores might not synch up to your graduate admissions application and we cannot guarantee your scores will be received by the deadline. If you plan to take or have already taken an additional exam, please make sure that ETS has already sent your first exam report to UCLA before December 15.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I will not receive official GRE scores until after the application deadline.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The test must have been taken within five (5) years of the submission date of the UCLA Graduate Division online application. For example, if you took the exam on October 30, 2015, you would need to complete the UCLA Graduate Division online application no later than October 30, 2020.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When do GRE results expire?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For Fall 2024-2025 GRE scores are not required. The department will see all scores from all reports. If you plan to take or have already taken an additional exam, please make sure that ETS has already sent your first exam report to UCLA before December 15.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For multiple GREs, which scores do you use?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To avoid delays up to several weeks in matching your report to your application, it is important to use the correct institution code, 4837, and the correct department code, 0402. If you did not use the correct codes, we eventually will be able to match your report to your application but not guaranteed to do so by the deadline. We recommend that you upload student reports to the Graduate Division application and email a copy of your student report to the Computer Science Department.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Will you receive my GRE report if I did not provide the department code or provided an incorrect department code?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes. We will be able to match your score report to your online application. In order to ensure your scores synch up with your online application make sure your last name, first name, middle name (if any) and email address match exactly on your ETS registration and on your online graduate admissions applications. If you leave out your middle name or use a different email address the scores might not synch up to your graduate admissions application and we cannot guarantee your scores will be received by the deadline.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>May I request that ETS send my score report to UCLA before I submit the online application?</t>
+  </si>
+  <si>
+    <t>May I request that ETS send my score report to UCLA before I submit the online application?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Space in university housing is very limited. If you are interested, please submit an online housing lottery application immediately after admission to the university. The application requires a $30 non-refundable fee. Information is available at the university housing website.</t>
+  </si>
+  <si>
+    <t>Is there university housing and, if so, when can I apply?</t>
+  </si>
+  <si>
+    <t>The Computer Science Department has been allocated a limited number of spaces to hold for funded, incoming Ph.D. students in Weyburn Terrace/Hilgard Apartments. Estimated monthly payments for the 2014-2015 academic year range from $1,300 to $1,400, including utilities.</t>
+  </si>
+  <si>
+    <t>Are there any special housing arrangements for computer science students?</t>
+  </si>
+  <si>
+    <t>A good place to start is the UCLA Community Housing Office (CHO) which provides an online rental database and maintains additional resources to assist those searching for housing in the Los Angeles area. Please visit the community housing website.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How do students locate housing around UCLA and Los Angeles?</t>
+  </si>
+  <si>
+    <t>Most applicants submit only 3 letters, which is the department’s preference. The Graduate Division online application does allow the names of 4 recommenders to be submitted, and the department will review all letters received. If you are an ESAP applicant to the CS MS program, you will need two letters of rec from CS faculty/instructors or instructors from outside the department that have a joint appointment with the UCLA CS Dept (i.e. Professors Achuta Kadambi and Mani Srivastava are ECE faculty with joint appointments with the CS Dept). If the faculty member does not have a joint appointment with the UCLA CS Dept they cannot serve as one of your two letters of rec for the CS M program as an ESAP applicant.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>May I submit more than 3 letters of recommendation?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes. The Graduate Division online application allows you to change recommenders and send reminders as needed through the recommendation provider list.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can I change my recommenders or send them reminders?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We prefer that letters be submitted through the Graduate Division online application process. However, recommenders may mail, fax or email their letters to the following: Graduate Student Affairs Office UCLA Computer Science Department Engineering VI room 291 Los Angeles, CA 90095-1596 No special enclosure or information is needed to match the letter to the applicant.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can recommendations be sent directly to the department?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We prefer to receive letters from faculty members who are familiar with your academic history, however, we understand that applicants who have graduated several years ago, and/or applicants who have work experience may have recommenders outside of academia. Regardless of who writes the letter, the content should relate your achievements and skills to your potential for success in your degree and career objectives. For ESAP applicants, letters of recommendation should be from CS faculty/lecturers.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>May I ask my work supervisors to submit letters of recommendation? I graduated several years ago and am having difficulty contacting my former professors.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Letters and transcripts are due by December 15. Typically, late letters of recommendation received through December will be reviewed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Will my application be considered if my recommenders submit letters after December 15?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLA,Henry Samueli School of Engineering and Applied Science (HSSEAS),Computer Science, Master,PhD,Application/Admission Requirements and Data</t>
+  </si>
+  <si>
+    <t>The vast majority of applicants have a background in computer science. Other majors represented include electrical engineering, math, statistics, and physics. For undergraduate work, we recommend 2 years of calculus (through differential equations and introduction to discreet structures), 1 year of physics (mechanics; Oscillations, Waves, Electric and Magnetic Fields); and a statistics course. The M.S. breadth requirement, which most students have partially completed before they enroll in our program, will give you an idea about recommended computer science courses. An applicant without a strong computer science background may be a very competitive applicant. Having professional experience as well as having taken courses that are equivalent to prerequisites for upper division undergraduate coursework, and the upper division courses themselves, would be most helpful. Applicants best illustrate their professional experience by succinctly describing their skills and projects in the statement of purpose, and submitting letters of recommendation that relate their achievements and skills to their potential for success in their degree and career objectives. Unfortunately, it is difficult to take CS courses at U.S. 4-year state universities due to the priority rules favoring admitted, full-time degree seeking students, community colleges typically offer only the prerequisites of the prerequisites, and extension programs offer mainly application courses and not courses equivalent to upper-division courses. However, every course taken and/or work skill achieved leads to a more competitive application. UCLA does not offer a transitional or pre-admission program, and  does not consider applications for a second bachelor’s degree. Courses offered by UCLA Extension that have the exact same course number as the courses offered in UCLA undergraduate and graduate degree programs provide good preparation. MSCS Program The Computer Science Department has a regular Master of Science Program, which is designed to nurture the next generation of computing professionals with the required depth and breadth of computer science knowledge. The MSCS program is a part of the Computer Science department. To apply for the MSCS program, please click HERE. MEng ProgramHenry Samueli School of Engineering and Applied Science (HSSEAS) School of Engineering has a one-year Master of Engineering (MEng) self-supporting, professional degree designed to develop future engineering leaders. The MENG degree addresses the needs of both students and industry, tailored to those who wish to pursue technical management positions, with both high-tech skill set and management savvy. The MEng program is not part of the Computer Science department.  To apply for the MEng, go to https://www.meng.ucla.edu/admissions/ MSCS vs. MENG The Computer Science Department offers Master’s of Computer Science (MSCS) Program, which is a 2-year program and has existed over 50 years. MEngr program is a new, one-year program. The MENG degree addresses the needs of both students and industry, tailored to those who wish to pursue technical management positions. Both MSCS and MENG programs include a capstone project with technological concentration. Can I apply to both programs since they are housed in different departments? No, you may only apply to one program. What are the differences between the MEng program and the MSCS program? The Department of Computer Science Master Program (MCSC) is a 2-year program that has existed for over 50 years.  The Master of Engineering Program (MENG) is a 1-year program that is starting its 2nd year Number of Applications for 2022 Admissions Cycle MCSC (MS program in the Computer Science Department) had over 4000 applications and 150 offers were made. MENG (MEng program in School of Engineering) had 573 applications and 220 offers were made. Capstone MENG Capstone topic is selected by the course instructor. MSCS Capstone topic is student-driven in which the students decide the topic and find their capstone advisor (must be CS faculty). The MSCS Capstone project is advised by faculty in the Department of Computer Science. Thesis Students in the MSCS program (Master’s in Computer Science) could choose a thesis option, instead of Capstone. The MS thesis option is designed to provide in-depth research opportunities with CS faculty. MENG does not provide a thesis option.</t>
+  </si>
+  <si>
+    <t>UCLA,Henry Samueli School of Engineering and Applied Science (HSSEAS),Computer Science, Master,PhD,Application/Admission/Document Status</t>
+  </si>
+  <si>
+    <t>UCLA,Henry Samueli School of Engineering and Applied Science (HSSEAS),Computer Science, Master,PhD,Calender/Timeline</t>
+  </si>
+  <si>
+    <t>UCLA,Henry Samueli School of Engineering and Applied Science (HSSEAS),Computer Science, Master,PhD,Confidential Finance Statement (CFS): International M.S. Applicants Only</t>
+  </si>
+  <si>
+    <t>UCLA,Henry Samueli School of Engineering and Applied Science (HSSEAS),Computer Science, Master,PhD,Cost of Attendance</t>
+  </si>
+  <si>
+    <t>UCLA,Henry Samueli School of Engineering and Applied Science (HSSEAS),Computer Science, Master,PhD,Degree Objective and Requirements</t>
+  </si>
+  <si>
+    <t>The computer science M.S. and Ph.D. degree programs do not incorporate distance learning courses. However, the UCLA HenryHenry Samueli School of Engineering and Applied Science (HSSEAS) School of Engineering and Applied Science does offer an online M.S. in Engineering.</t>
+  </si>
+  <si>
+    <t>UCLA,Henry Samueli School of Engineering and Applied Science (HSSEAS),Computer Science, Master,PhD,GRE(Graduate Record Examination)</t>
+  </si>
+  <si>
+    <t>UCLA,Henry Samueli School of Engineering and Applied Science (HSSEAS),Computer Science, Master,PhD,Housing</t>
+  </si>
+  <si>
+    <t>UCLA,Henry Samueli School of Engineering and Applied Science (HSSEAS),Computer Science, Master,PhD,Letters of Recommendation</t>
+  </si>
+  <si>
+    <t>Ph.D. applicants must select a field of study and a preferred faculty advisor when submitting the online application. M.S. applicants are not required to selected either a field of study or a preferred faculty advisor as the Master’s program does not have specializations however, most do so. Initial faculty advisors are assigned to new M.S. students during the summer before enrollment. M.S. students may choose a broad selection of courses or any combination of courses from the following fields: Artificial Intelligence Computer Science Theory Computer System Architecture Computational Systems Biology Databases (Information and Data Management) Graphics and Vision Network Systems Programming Languages and Systems Ph.D. students choose their major and minor as part of the Proposal of Fields. For more information, Ph.D. applicants may see the Proposal of Fields form and guidelines on the CS Graduate Program webpage. Information about the fields of study and course descriptions are available in the HenryHenry Samueli School of Engineering and Applied Science (HSSEAS) School of Engineering and Applied Science (HSSEAS) Announcement.</t>
+  </si>
+  <si>
+    <t>Am I required to choose a major or a field of study within computer science on the Graduate Division online application?</t>
+  </si>
+  <si>
+    <t>No. Applicants may apply to only one academic program, and within that program, only one degree objective.</t>
+  </si>
+  <si>
+    <t>May applicants apply to more than one academic program (e.g. CS and EE)?</t>
+  </si>
+  <si>
+    <t>UCLA,Henry Samueli School of Engineering and Applied Science (HSSEAS),Computer Science, Master,PhD,Major(Field of Study)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Applicants to the MBA/MSCS program submit two online applications including both GRE and GMAT and different sets of recommendations. Admission to both or either is competitive, and there is no guarantee that new or current students in one program will be admitted into the other program. To begin the application process, applicants submit online applications beginning no later than December 1 to the Anderson School for management and to the Graduate Division for computer science.</t>
+  </si>
+  <si>
+    <t>How do I apply to the MBA/MSCS Concurrent Degree Program?</t>
+  </si>
+  <si>
+    <t>These two world-class programs uniquely prepare students for diverse professional challenges and opportunities. Students take 16 fewer quarter units in the concurrent program and are able to complete the requirements for both programs in 3 years.</t>
+  </si>
+  <si>
+    <t>What are advantages of completing the concurrent degree program?</t>
+  </si>
+  <si>
+    <t>Information is available on the Computer Science website and the Anderson School website.</t>
+  </si>
+  <si>
+    <t>Where can I obtain additional information about the program?</t>
+  </si>
+  <si>
+    <t>UCLA,Henry Samueli School of Engineering and Applied Science (HSSEAS),Computer Science, Master,PhD,MBA/MSCS Concurrent Degree Program</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes a personal history statement (500 words max) is required. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In addition to the statement of purpose, is a personal history statement or writing sample required?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLA,Henry Samueli School of Engineering and Applied Science (HSSEAS),Computer Science, Master,PhD,Personal History Statement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes 500 words max for the SOP.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are there format or length requirements?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The statement of purpose is considered to be a writing sample. No additional writing sample is requested.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In addition to the statement of purpose, is a writing sample required?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLA,Henry Samueli School of Engineering and Applied Science (HSSEAS),Computer Science, Master,PhD,Statement of Purpose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLA’s TOEFL institution code is 4837. The TOEFL department code is 78. In order to ensure your scores synch up with your online application make sure your last name, first name, middle name (if any) and email address match exactly on your ETS registration and on your online graduate admissions applications. If you leave out your middle name or use a different email address the scores might not synch up to your graduate admissions application and we cannot guarantee your scores will be received by the deadline.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is UCLA’s TOEFL institution code? What is the TOEFL department code?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Applicants who hold a bachelor’s degree or higher from a university within the United States or in another country in which English is both the primarily spoken language of daily life (for the country) AND the medium of instruction, or have completed two years of full-time study at such institutions (i.e. accredited US university or accredited university where English is the primary spoken language of  daily life (for the country) and the medium of instruction), are exempted from the TOEFL/IELTS requirement. Your eligibility for an exemption will be verified by the information you provide in the academic history section of your online application and the official transcripts that you upload in your graduate admissions application. If your academic history does not fit this criteria then you are not exempt from the TOEFL/IELTS requirement (no exceptions) and please do not email us asking for an exception/waiver. Per UCLA Graduate Division website, in order to be exempt from the TOEFL/IELTS requirement,  “hold a bachelor’s or higher degree from an accredited university located in the United States or in another country in which English is both the primary spoken language of daily life (e.g., Australia, Barbados, Canada, Ireland, Jamaica, New Zealand, United Kingdom) and the medium of instruction.</t>
+  </si>
+  <si>
+    <t>Can my TOEFL/IELTS requirement be waived? I attended an institution at which all instruction was done in English.</t>
+  </si>
+  <si>
+    <t>The Computer Science Department will allow a score below the minimum on one section of the exam if your total TOEFL score is at least 87. For the internet-based TOEFL (TOEFL iBT), the following are the minimum scores for each section: Writing:  25 Speaking:  24 Reading:  21 Listening:  17 These are the minimum scores for each section. Please do not contact us to evaluate if you can still be admitted if TOEFL score(s) are lower as we do not evaluate admissions via email/over the phone. In order to see if you are eligible, the information is on this webpage and it is up to you determine if this program is a right fit and if you meet the graduate admissions requirements which are stated on this web page.</t>
+  </si>
+  <si>
+    <t>Will my application still be considered for admission if I scored below the minimum on one of the sections of the TOEFL?</t>
+  </si>
+  <si>
+    <t>We use only the most recent TOEFL scores.</t>
+  </si>
+  <si>
+    <t>For multiple TOEFLs, which scores do you use?</t>
+  </si>
+  <si>
+    <t>As long as you complete the exam on or before the December 15 deadline, we will accept the scores. You may email your student report to the CS department (gradadm@cs.ucla.edu). If you plan to take or have already taken an additional exam, please make sure that ETS has already sent your first exam report to UCLA by December 15 at the latest. In order to ensure your scores synch up with your online application make sure your last name, first name, middle name (if any) and email address match exactly on your ETS registration and on your online graduate admissions applications. If you leave out your middle name or use a different email address the scores might not synch up to your graduate admissions application and we cannot guarantee your scores will be received by the deadline. Please make sure you order the test scores be sent to the correct university and department. You will be contacted if any document or application material is missing or needed. Please do not email or call to inquire about receipt of documents as it will delay our efforts to process application material. Our office is able to match test reports and transcripts for nearly all applicants. An applicant is denied admission consideration due to an incomplete file only if he or she does not respond to our request to submit missing material. Ph.D. decisions will be emailed to all applicants in early February. M.S. decisions will be emailed out in early March.</t>
+  </si>
+  <si>
+    <t>I will not receive official TOEFL/IELTS scores until after the application deadline. Will I still be considered for admission?</t>
+  </si>
+  <si>
+    <t>You must have taken the TOEFL within 2 years of the date the online admission application is submitted. For example, if you took the exam on October 30, 2014, you would need to complete the UCLA Graduate Division online application no later than October 30, 2016.</t>
+  </si>
+  <si>
+    <t>When do TOEFL/IELTS results expire?</t>
+  </si>
+  <si>
+    <t>To avoid delays up to several weeks in matching your report to your application, it is important to use the correct institution code, 4837, and the correct department code, 78. If you did not use the correct codes, we eventually will be able to match your report to your application but cannot guarantee it will be done by the deadline. We recommend that you upload student reports to the Graduate Division application and email a copy of your student report to the Computer Science Department. In order to ensure your scores synch up with your online application make sure your last name, first name, middle name (if any) and email address match exactly on your ETS registration and on your online graduate admissions applications. If you leave out your middle name or use a different email address the scores might not synch up to your graduate admissions application and we cannot guarantee your scores will be received by the deadline.​</t>
+  </si>
+  <si>
+    <t>Will you receive my TOEFL report if I did not provide the department code or provided an incorrect department code?</t>
+  </si>
+  <si>
+    <t>In order to ensure your scores synch up with your online application make sure your last name, first name, middle name (if any) and email address match exactly on your ETS registration and on your online graduate admissions applications. If you leave out your middle name or use a different email address the scores might not synch up to your graduate admissions application and we cannot guarantee your scores will be received by the deadline.</t>
+  </si>
+  <si>
+    <t>Information on the IELTS, Test of Oral Proficiency, and ESLPE is available at the Graduate Division website.</t>
+  </si>
+  <si>
+    <t>Where may I find additional information concerning English requirements?</t>
+  </si>
+  <si>
+    <t>UCLA,Henry Samueli School of Engineering and Applied Science (HSSEAS),Computer Science, Master,PhD,TOEFL/IELTS (International Applicants Only)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All applicants are required to upload ONE (1) official transcript from each post-secondary institution attended. Official transcripts should be uploaded to your online application only. If you are officially offered admission, please send us your official transcripts/degree certificate/diplomas. Applicants who are attending or have graduated from a U.S. institution that transmits transcripts electronically may request to have official transcripts emailed to: gradadm@cs.ucla.edu but can also upload the official transcript in their online application. Official transcripts are defined as original documents issued by the institution that bear the actual signature of the Registrar — not a photocopy — and the seal of the issuing institution. Do not, however, send the original of an academic record that cannot be replaced; upload a properly certified copy instead. International applicants should refer to the “Requirements for International Students” section of the Graduate Division webpage for information about submission of foreign academic records. We do not request or review WES evaluations. Most applicants are in the process of completing a degree. If offered admission, the final transcript indicating the date of the degree conferral may be submitted during the summer. Applicants from India and China who have graduated must submit official copies of their degree certificates along with their final official transcripts and diploma: If you are receiving your bachelor’s degree from a university in China If your bachelor’s degree has been awarded, please upload your final official transcripts both in English and Chinese (make sure the GPA scale is included when you upload these documents), the official degree certificate both in English and Chinese and the official diploma in both English and Chinese in your online application. If you are still enrolled and have not been awarded your degree from your university in China, please be sure to upload your latest official transcripts both in English and Chinese in your online admissions application (make sure your university’s GPA scale is included when you upload these documents). If you are receiving your bachelor’s degree from a university in India If you have received your bachelor’s degree from a university in India, please be sure to upload a copy of your final official transcripts along with a copy of your official diploma that shows when your degree was officially conferred and awarded. Please note the conferral certificate is NOT the same as the official diploma. If you have not been awarded your degree and are still enrolled in a university in India, please be sure to upload a copy of your official transcripts in your online admissions application (make sure your university’s GPA scale is included when you upload these documents). If you are receiving your bachelor’s degree from a University outside the U.S. (and not from India and China) If you have been awarded your degree, please be sure to upload your official transcript both in English and the native language from the country the university is located in, and a copy of your official diploma both in English and the native official language from the country the university you attended in your online application. If you are currently enrolled and have not been awarded your degree from your university, please be sure to upload your official transcripts in both English and the native official language from the country the university you are attending in your online application (make sure your university’s GPA scale is included when you upload these documents). Official transcripts are due December 1 along with the application. We will make every effort to review late transcripts received between December 1 and December 15, but we cannot guarantee that they will be included in the review. UCLA students and alumni Please note: UCLA students and alumni do not need to submit official copies of UCLA transcripts. We have access to your records. Graduate Student Affairs Office UCLA Computer Science Department Engineering VI, room 291 Los Angeles, CA 90095-1596</t>
+  </si>
+  <si>
+    <t>How many transcripts are required and where do I send them?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have requested that transcripts be sent to you, but I am concerned that you will not receive them by the deadline of December 1. If they arrive late, will I still be considered for admission?
+Typically, late letters and late transcripts received through December 15 will be reviewed, but it cannot be guaranteed. You may upload unofficial transcripts to the Graduate Division online application. This may expedite the department’s initial review of your application; however, a departmental admission recommendation cannot be made to the Graduate Division without receipt of official transcripts.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have requested that transcripts be sent to you, but I am concerned that you will not receive them by the deadline of December 1. If they arrive late, will I still be considered for admission?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International credentials issued in a language other than English must be accompanied by an English translation. Please submit ONE (1) set of official transcripts in both English and the native language. International applicants should refer to the Graduate Division webpage for information about submission of academic records.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How do you evaluate transcripts issued in a language other than English?</t>
+  </si>
+  <si>
+    <t>Make sure the grading scale is on the official transcripts uploaded in your online admissions application. Staff in the Computer Science Graduate Student Affairs Office review and convert, as necessary, the marks or grades of all applicants. The Graduate Division online application asks applicants to submit their grade point average on the scale used by their institutions.</t>
+  </si>
+  <si>
+    <t>My university does not assign grades on a 4.0 grade scale. Should I calculate my GPA?</t>
+  </si>
+  <si>
+    <t>My official transcripts do not contain all the requested information such as the month and year of award. Do I need to submit a diploma?</t>
+  </si>
+  <si>
+    <t>A complete academic history must include attested or certified copies of official documents that provide the following: 1) individual subjects or classes with marks or grades; 2) class placement or overall grade; 3) degree certificate that includes degree received and degree conferral date; and 4) institutional marks/grading scale. Most applicants are in the process of completing a degree. If offered admission, the final transcript indicating the date of the degree conferral may be submitted during the summer. Applicants from India and China who have graduated must submit official copies of their degree certificates along with their final official transcripts.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLA,Henry Samueli School of Engineering and Applied Science (HSSEAS),Computer Science, Master,PhD,Transcripts (Not required from UCLA students and alumni)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The total amount of money needed for living and educational expenses for the 2021-2022 academic year for most programs at UCLA, including computer science, is about US $55,000. This includes 1) US about $33,100 for tuition and fees for three quarters, and 2) US about $19,500 for basic living costs (food, rent, laundry, local transportation, books and supplies, etc.). It is estimated that the cost for the 2021-2022 academic year will be at least $55,000. PhD international students offered admission will be provided funding that meets the anticipated cost of attendance. (In a few instances, PhD applicants are admitted who have their own agency funding (e.g. Fulbright Fellowship, government/industry support) that meets the anticipated cost of attendance.) M.S. applicants are not eligible for departmental financial support. TAing is not part of the Computer Science Masters Program and M.S. student (both incoming and continuing) are not guaranteed TAships/GSRs/Reader positions (i.e. Dept funding) for any year. To qualify for a visa to study in the U.S., international M.S. applicants must demonstrate personal or agency financial support of at least $55,000 for the first year. Prospective M.S. applicants should apply for admission ONLY if they can provide such documentation, which will be requested if admission is offered, in early Spring(March-May). Information on the cost of attendance is available on the UCLA Graduate Division Cost of Attendance webpage. Information about university-wide fellowships and grants and external fellowships may be found at the UCLA Graduate Division funding webpage.</t>
+  </si>
+  <si>
+    <t>The UCLA Dashew Center for International Students and Scholars prepares visa documents (Form I-20 for F-1 student visa) from May to September for admitted applicants who have returned the Statement of Intent to Register, Statement of Legal Residence, and CFS that includes the appropriate financial documentation. Please see information on visa procedures on the Graduate Division website.</t>
+  </si>
+  <si>
+    <t>When may I apply for a visa?</t>
+  </si>
+  <si>
+    <t>UCLA,Henry Samueli School of Engineering and Applied Science (HSSEAS),Computer Science, Master,PhD,Visa (International Applicants Only)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The statement of purpose is considered to be the writing sample. No additional writing sample is requested. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is a writing sample required?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLA,Henry Samueli School of Engineering and Applied Science (HSSEAS),Computer Science, Master,PhD,Writing Sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cs.ucla.edu/graduate-admission-frequently-asked-questions/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -558,6 +1139,31 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Lato"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2B2B2B"/>
+      <name val="Lato"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF2B2B2B"/>
+      <name val="Lato"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Lato"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -593,7 +1199,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -620,6 +1226,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -936,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2823C8-CB8E-4AEF-BAE7-D0349F134C12}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="B117" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -962,7 +1580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="201.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="201.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -976,7 +1594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="82.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -990,7 +1608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="115.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1004,7 +1622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="99" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="99" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1018,7 +1636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1032,7 +1650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1046,7 +1664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="247.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="247.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1060,7 +1678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1074,7 +1692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1088,7 +1706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1102,7 +1720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1116,7 +1734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1130,7 +1748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1144,7 +1762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1158,7 +1776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -1172,7 +1790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -1186,7 +1804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -1200,7 +1818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -1214,7 +1832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -1228,7 +1846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -1242,7 +1860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1256,7 +1874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -1270,7 +1888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -1284,7 +1902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -1298,7 +1916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1312,7 +1930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
@@ -1326,7 +1944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
@@ -1340,7 +1958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -1354,7 +1972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
@@ -1368,7 +1986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
@@ -1382,7 +2000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>67</v>
       </c>
@@ -1396,7 +2014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>68</v>
       </c>
@@ -1410,7 +2028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -1424,7 +2042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="142.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>74</v>
       </c>
@@ -1438,7 +2056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>76</v>
       </c>
@@ -1452,7 +2070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>78</v>
       </c>
@@ -1466,7 +2084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -1480,7 +2098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>82</v>
       </c>
@@ -1494,7 +2112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>84</v>
       </c>
@@ -1508,7 +2126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>86</v>
       </c>
@@ -1522,7 +2140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>88</v>
       </c>
@@ -1536,7 +2154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>90</v>
       </c>
@@ -1550,7 +2168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>92</v>
       </c>
@@ -1562,6 +2180,1039 @@
       </c>
       <c r="D44" s="6" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" t="s">
+        <v>189</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" t="s">
+        <v>189</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>189</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" t="s">
+        <v>189</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s">
+        <v>189</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" t="s">
+        <v>189</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" t="s">
+        <v>191</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" t="s">
+        <v>191</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" t="s">
+        <v>191</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" t="s">
+        <v>191</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" t="s">
+        <v>191</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" t="s">
+        <v>192</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" t="s">
+        <v>192</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" t="s">
+        <v>192</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" t="s">
+        <v>192</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" t="s">
+        <v>193</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" t="s">
+        <v>193</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" t="s">
+        <v>194</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" t="s">
+        <v>194</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" t="s">
+        <v>195</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" t="s">
+        <v>195</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" t="s">
+        <v>195</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" t="s">
+        <v>195</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" t="s">
+        <v>195</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" t="s">
+        <v>195</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" t="s">
+        <v>195</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" t="s">
+        <v>197</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" t="s">
+        <v>197</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" t="s">
+        <v>197</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" t="s">
+        <v>197</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" t="s">
+        <v>197</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79" t="s">
+        <v>197</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" t="s">
+        <v>160</v>
+      </c>
+      <c r="C80" t="s">
+        <v>197</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" t="s">
+        <v>162</v>
+      </c>
+      <c r="C81" t="s">
+        <v>197</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" t="s">
+        <v>164</v>
+      </c>
+      <c r="C82" t="s">
+        <v>197</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" t="s">
+        <v>166</v>
+      </c>
+      <c r="C83" t="s">
+        <v>197</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="108" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" t="s">
+        <v>168</v>
+      </c>
+      <c r="C84" t="s">
+        <v>197</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" t="s">
+        <v>170</v>
+      </c>
+      <c r="C85" t="s">
+        <v>197</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" t="s">
+        <v>198</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" t="s">
+        <v>198</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" t="s">
+        <v>198</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" t="s">
+        <v>199</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" t="s">
+        <v>199</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" t="s">
+        <v>199</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="144" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" t="s">
+        <v>199</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" t="s">
+        <v>199</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="108" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B94" t="s">
+        <v>200</v>
+      </c>
+      <c r="C94" t="s">
+        <v>204</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C95" t="s">
+        <v>204</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B96" t="s">
+        <v>205</v>
+      </c>
+      <c r="C96" t="s">
+        <v>211</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C97" t="s">
+        <v>211</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B98" t="s">
+        <v>209</v>
+      </c>
+      <c r="C98" t="s">
+        <v>211</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C99" t="s">
+        <v>214</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B100" t="s">
+        <v>215</v>
+      </c>
+      <c r="C100" t="s">
+        <v>219</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C101" t="s">
+        <v>219</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B102" t="s">
+        <v>220</v>
+      </c>
+      <c r="C102" t="s">
+        <v>237</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B103" t="s">
+        <v>222</v>
+      </c>
+      <c r="C103" t="s">
+        <v>237</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="108" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B104" t="s">
+        <v>224</v>
+      </c>
+      <c r="C104" t="s">
+        <v>237</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C105" t="s">
+        <v>237</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="108" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C106" t="s">
+        <v>237</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C107" t="s">
+        <v>237</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="108" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C108" t="s">
+        <v>237</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C109" t="s">
+        <v>237</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B110" t="s">
+        <v>235</v>
+      </c>
+      <c r="C110" t="s">
+        <v>237</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B111" t="s">
+        <v>238</v>
+      </c>
+      <c r="C111" t="s">
+        <v>248</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="247.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C112" t="s">
+        <v>248</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B113" t="s">
+        <v>242</v>
+      </c>
+      <c r="C113" t="s">
+        <v>248</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C114" t="s">
+        <v>248</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="342" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C115" t="s">
+        <v>248</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A117" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C117" t="s">
+        <v>252</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B118" t="s">
+        <v>253</v>
+      </c>
+      <c r="C118" t="s">
+        <v>255</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
